--- a/classfiers/figure/output_excel_file.xlsx
+++ b/classfiers/figure/output_excel_file.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.21428571428571</v>
+        <v>15.78571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.35714285714286</v>
+        <v>27.35714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.21428571428572</v>
+        <v>26.35714285714286</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.85714285714285</v>
+        <v>38.57142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.42857142857143</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.92857142857143</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>37.28571428571428</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>34.85714285714285</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.57142857142857</v>
+        <v>22.85714285714286</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.35714285714286</v>
+        <v>25.42857142857143</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.85714285714286</v>
+        <v>20.85714285714286</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.285714285714286</v>
+        <v>10.42857142857143</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>8.571428571428571</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.85714285714286</v>
+        <v>34.42857142857143</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28.71428571428572</v>
+        <v>30.85714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.857142857142857</v>
+        <v>6.214285714285714</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.785714285714286</v>
+        <v>7.357142857142857</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.214285714285714</v>
+        <v>2.785714285714286</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.57142857142857</v>
+        <v>16.85714285714286</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.35714285714286</v>
+        <v>17.35714285714286</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.428571428571429</v>
+        <v>12.78571428571429</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23.57142857142857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22.85714285714286</v>
+        <v>14.07142857142857</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.28571428571428</v>
+        <v>17.21428571428572</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.14285714285714</v>
+        <v>14.57142857142857</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25.42857142857143</v>
+        <v>11.28571428571429</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.42857142857143</v>
+        <v>30.35714285714286</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>24.71428571428572</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>5.928571428571429</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.64285714285714</v>
+        <v>18.35714285714286</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>20.28571428571428</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.642857142857143</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.35714285714286</v>
+        <v>19.21428571428572</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.57142857142857</v>
+        <v>19.07142857142857</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>17.85714285714286</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.71428571428572</v>
+        <v>38.28571428571428</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.57142857142857</v>
+        <v>39.28571428571428</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.42857142857143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.85714285714286</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.28571428571428</v>
+        <v>33.57142857142857</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.42857142857143</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/figure/output_excel_file.xlsx
+++ b/classfiers/figure/output_excel_file.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.78571428571429</v>
+        <v>12.85714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.35714285714286</v>
+        <v>23.85714285714286</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.35714285714286</v>
+        <v>27.28571428571428</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.57142857142857</v>
+        <v>38.07142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>39.57142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.5</v>
+        <v>38.07142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.28571428571428</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.5</v>
+        <v>35.42857142857143</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.85714285714285</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.85714285714286</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.42857142857143</v>
+        <v>25.85714285714286</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.42857142857143</v>
+        <v>10.42857142857143</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.85714285714286</v>
+        <v>15.71428571428571</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.42857142857143</v>
+        <v>8.285714285714286</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.571428571428571</v>
+        <v>7.142857142857143</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.42857142857143</v>
+        <v>33.14285714285715</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.85714285714286</v>
+        <v>32.85714285714285</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>29.85714285714286</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.214285714285714</v>
+        <v>8.571428571428571</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.357142857142857</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.785714285714286</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.85714285714286</v>
+        <v>11.28571428571429</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.35714285714286</v>
+        <v>19.28571428571428</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.78571428571429</v>
+        <v>10.14285714285714</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>13.57142857142857</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.07142857142857</v>
+        <v>21.78571428571428</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.21428571428572</v>
+        <v>14.57142857142857</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.57142857142857</v>
+        <v>22.14285714285714</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11.28571428571429</v>
+        <v>13.57142857142857</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.35714285714286</v>
+        <v>27.28571428571428</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.71428571428572</v>
+        <v>28.21428571428572</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>25.57142857142857</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.928571428571429</v>
+        <v>7.857142857142857</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.35714285714286</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.28571428571428</v>
+        <v>20.14285714285714</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.5</v>
+        <v>13.57142857142857</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.21428571428572</v>
+        <v>17.28571428571428</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.07142857142857</v>
+        <v>23.28571428571428</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.85714285714286</v>
+        <v>15.71428571428571</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>38.28571428571428</v>
+        <v>38.64285714285715</v>
       </c>
     </row>
     <row r="42">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38</v>
+        <v>37.07142857142857</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
